--- a/Input Files/Config-SAMBC.xlsx
+++ b/Input Files/Config-SAMBC.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26717"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26807"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/ann-katherine_tan_dxc_com/Documents/My Documents/P&amp;G Projects/Robotics Process Automation - RPA/DXC Project Estimates/CHINA BPO Process Automation/Requirements Gathering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="13_ncr:1_{9FAC7F21-82E0-48A1-90CD-69D373407AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{883D6108-AF48-4C5B-8B8D-4D79E990A2BD}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{9FAC7F21-82E0-48A1-90CD-69D373407AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57492D23-B2D0-44E3-BEAC-8FFED0840E09}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="14" r:id="rId1"/>
     <sheet name="Email Receivers" sheetId="16" r:id="rId2"/>
     <sheet name="ZDER" sheetId="17" r:id="rId3"/>
+    <sheet name="Python Scripts" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Config!$A$1:$E$20</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>Section</t>
   </si>
@@ -202,7 +203,7 @@
     <t>txt Document Date</t>
   </si>
   <si>
-    <t>11.07.2023</t>
+    <t>11.08.2023</t>
   </si>
   <si>
     <t>dd.MM.yyyy (26.01.2022) Force a document date for report</t>
@@ -263,6 +264,30 @@
   </si>
   <si>
     <t>Ord.Reason</t>
+  </si>
+  <si>
+    <t>isPythonLogic</t>
+  </si>
+  <si>
+    <t>config.yaml</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ExcelUtils.py</t>
+  </si>
+  <si>
+    <t>Log.py</t>
+  </si>
+  <si>
+    <t>PandasUtils.py</t>
+  </si>
+  <si>
+    <t>SAMBCOptimization.py</t>
+  </si>
+  <si>
+    <t>YamlHandler.py</t>
   </si>
 </sst>
 </file>
@@ -437,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +500,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,9 +788,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1335,6 +1363,81 @@
     <row r="17" spans="1:1" ht="15">
       <c r="A17" s="14" t="s">
         <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D666D8-46C2-42CC-A0DB-FE1920510548}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
